--- a/medicine/Pharmacie/Sevelamer/Sevelamer.xlsx
+++ b/medicine/Pharmacie/Sevelamer/Sevelamer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le sevelamer, vendu entre autres sous le nom de marque Renagel[1] est un médicament utilisé pour traiter l'hyperphosphatémie dans les maladies rénales chroniques[1]. Il est pris par voie orale avec les repas[1].
+Le sevelamer, vendu entre autres sous le nom de marque Renagel est un médicament utilisé pour traiter l'hyperphosphatémie dans les maladies rénales chroniques. Il est pris par voie orale avec les repas.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires courants sont les douleurs abdominales, la diarrhée, les nausées et la constipation; une éruption cutanée peut également survenir[1],[2]. Il agit en liant le phosphate dans les intestins[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires courants sont les douleurs abdominales, la diarrhée, les nausées et la constipation; une éruption cutanée peut également survenir,. Il agit en liant le phosphate dans les intestins.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le sevelamer est approuvé pour un usage médical aux États-Unis en 1998[1]. Aux États-Unis, il en coûte environ 48 USD pour 270 comprimés de 800 mg à partir de 2021[3]. Au Royaume-Uni, cette quantité coûte environ 75 £ au NHS[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sevelamer est approuvé pour un usage médical aux États-Unis en 1998. Aux États-Unis, il en coûte environ 48 USD pour 270 comprimés de 800 mg à partir de 2021. Au Royaume-Uni, cette quantité coûte environ 75 £ au NHS.
 </t>
         </is>
       </c>
